--- a/src/test/resources/KeywordScriptList.xlsx
+++ b/src/test/resources/KeywordScriptList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>/src/test/resources/KW-Scripts/KWScript2.xlsx</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>/src/test/resources/KW-Scripts/KWScript4.xlsx</t>
+  </si>
+  <si>
+    <t>Script1</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -438,85 +444,15 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -527,12 +463,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
